--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.033</v>
+        <v>-12.06379999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.979500000000001</v>
+        <v>6.1053</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,10 +600,10 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.6548</v>
+        <v>5.496600000000002</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.31639999999999</v>
+        <v>-11.20629999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.5286</v>
+        <v>-13.32909999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.632899999999994</v>
+        <v>6.826299999999993</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.5384</v>
+        <v>-12.51910000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.9054</v>
+        <v>-12.6265</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.5407</v>
+        <v>-13.59819999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.598300000000002</v>
+        <v>8.609300000000006</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.8039</v>
+        <v>-12.6472</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.818499999999998</v>
+        <v>6.051399999999994</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.4563</v>
+        <v>-12.8144</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.797899999999996</v>
+        <v>4.797399999999996</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.43420000000001</v>
+        <v>-11.70700000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.251100000000008</v>
+        <v>9.480500000000005</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.743400000000001</v>
+        <v>9.778999999999998</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.3429</v>
+        <v>-13.26109999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-12.71179999999999</v>
+        <v>-12.4904</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.2043</v>
+        <v>-10.2789</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,7 +1765,7 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.9295</v>
+        <v>-12.1492</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.15060000000001</v>
+        <v>-12.263</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.69630000000001</v>
+        <v>-11.85020000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.0795</v>
+        <v>-12.958</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
